--- a/excel/devicedetail.xlsx
+++ b/excel/devicedetail.xlsx
@@ -90,13 +90,13 @@
     <t xml:space="preserve">2017</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耒阳金山市场主机增加</t>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017111388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普什3D有限公司</t>
   </si>
   <si>
     <t xml:space="preserve">WCFX</t>
@@ -105,6 +105,507 @@
     <t xml:space="preserve">WCFX23S</t>
   </si>
   <si>
+    <t xml:space="preserve">成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐凡渊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017111394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宜宾金座售楼部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP65HKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐凡渊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017111394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宜宾金座售楼部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCSHP30 M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐凡渊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017111394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宜宾金座售楼部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCSHP30 S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐凡渊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017111394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宜宾金座售楼部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐凡渊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017111394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宜宾金座售楼部</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐凡渊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017120001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大连</t>
+  </si>
+  <si>
+    <t xml:space="preserve">辛国</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南广播电视台末端增补一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青岛品品好粮油有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX15S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王彦超</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江苏星河集团有限公司生产车间 冷水机组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX40T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合肥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怀文君</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">江苏星河集团有限公司生产车间 冷却塔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合肥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怀文君</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沈阳东软集团A座中央空调系统改造工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沈阳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨宇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常青集团-井陉服务区增补6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP130HLKG（带手操器）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石家庄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘伟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">常青集团-井陉服务区增补6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP130HLKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石家庄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">刘伟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">汝州市金融大厦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卢婉婉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">华电国际电力股份有限公司山东分公司办公楼16楼会议室空调更换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合肥邵氏数码城改造 末端增补</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合肥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怀文君</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">瑞康养老中心项目行政楼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙乃波</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">东方海洋精准医疗科技园北半办公区风机盘管合同</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲晓亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浙江波罗密新材料有限公司FCU增补</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杭州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怀嘉俊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耒阳金山市场末端增补3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
     <t xml:space="preserve">长沙</t>
   </si>
   <si>
@@ -117,19 +618,1045 @@
     <t xml:space="preserve">2017</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家烟草检测中心</t>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长沙科乐机电设备有限公司模块机2017年集采第五批</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP65HKG(主操作器及附件配30m电缆)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长沙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡国富</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长沙科乐机电设备有限公司模块机2017年集采第五批</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP65HKG(主操作器及附件配30m电缆)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长沙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡国富</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长沙科乐机电设备有限公司模块机2017年集采第五批</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP65HKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长沙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡国富</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东青年政治学院实验实训楼新风、空调系统采购及管道敷设工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP130HGKGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东青年政治学院实验实训楼新风、空调系统采购及管道敷设工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP130HGKGA（RS485接口加价）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东青年政治学院实验实训楼新风、空调系统采购及管道敷设工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP130HGKGA（电子膨胀加价）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东青年政治学院实验实训楼新风、空调系统采购及管道敷设工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东青年政治学院实验实训楼新风、空调系统采购及管道敷设工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东青年政治学院实验实训楼新风、空调系统采购及管道敷设工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东青年政治学院实验实训楼新风、空调系统采购及管道敷设工程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东胜邦塑胶有限公司重庆PE管材项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX40T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潍坊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨泽全</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东胜邦塑胶有限公司重庆PE管材项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDS65HKG(全年制冷）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潍坊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨泽全</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东胜邦塑胶有限公司重庆PE管材项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX40T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重庆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牟保平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东胜邦塑胶有限公司重庆PE管材项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDS65HKG(全年制冷）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重庆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">牟保平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南通市海门市金呢集团车间二期项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX38T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨大山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南通市海门市金呢集团车间二期项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨大山</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">韶关利民制药集团冷却塔项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄涛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">亚朵酒店风冷模块项目增补1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP65HKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王孟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国抽纱绮丽大厦暖气改造项目项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP65HLKG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲晓亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉报集团文化产业园创意办公楼及展示馆项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杭州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怀嘉俊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉报集团文化产业园创意办公楼及展示馆项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杭州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怀嘉俊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阳光房地产小店凤凰城项目第六批</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">太原</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宫文艺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阳光房地产小店凤凰城项目第六批</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">太原</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宫文艺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东神舟制冷配套项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX50T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东神舟制冷配套项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陈明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑龙江龙煤鸡西矿业有限责任公司新发矿抽排站瓦斯发电废热回收项目用溴化锂吸收式热泵采购</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外购</t>
+  </si>
+  <si>
+    <t xml:space="preserve">热水驱动型余热回收专用机组HRU06-W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">赵小冬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰轮日照美佳项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX10SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲晓亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰轮日照美佳项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX15SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲晓亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰轮日照美佳项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX10SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王彦超</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰轮日照美佳项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX15SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王彦超</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰轮日照美佳项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲晓亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冰轮日照美佳项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青岛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王彦超</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国妇婴医院项目</t>
   </si>
   <si>
     <t xml:space="preserve">A-C</t>
   </si>
   <si>
-    <t xml:space="preserve">ACDSHP250GW</t>
+    <t xml:space="preserve">ACDX125R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王孟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">步步高长沙丽发新城店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX24S(+搬运底座)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长沙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">威海俄罗斯游艇项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲晓亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沧州中央豪庭  增补1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石家庄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哈鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深圳华耀城新增1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX19SRH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄涛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深圳华耀城新增1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WCFX50TRH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄涛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深圳华耀城新增2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄涛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济宁泗水圣源酒店增补一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李元智</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">河南省委改造项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
   </si>
   <si>
     <t xml:space="preserve">郑州</t>
@@ -144,349 +1671,475 @@
     <t xml:space="preserve">2017</t>
   </si>
   <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家烟草检测中心</t>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济宁任城区华任尚品宾馆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">董帅帅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国航培训中心2017增订3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工业项目组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">王效民</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南京至高淳城际轨道禄口新城南站至高淳段工程车站设备安装工程DS1-CA01标项目</t>
   </si>
   <si>
     <t xml:space="preserve">A-C</t>
   </si>
   <si>
-    <t xml:space="preserve">ACDSHP400GW</t>
+    <t xml:space="preserve">ACDSHP150GW  (主模块)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨志云</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南京至高淳城际轨道禄口新城南站至高淳段工程车站设备安装工程DS1-CA01标项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AACDSHP150GW  (子模块)                        	)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">南京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨志云</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东深蓝机器股份有限公司项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲晓亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东深蓝机器股份有限公司项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">烟台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">曲晓亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东深蓝机器股份有限公司项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACDSHP65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">山东深蓝机器股份有限公司项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">济南</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胡晶晶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上蔡喜盈门酒店管理公司维也纳酒店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFP</t>
   </si>
   <si>
     <t xml:space="preserve">郑州</t>
   </si>
   <si>
-    <t xml:space="preserve">卢婉婉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家烟草检测中心</t>
+    <t xml:space="preserve">耿协银</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上蔡喜盈门酒店管理公司维也纳酒店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑州</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耿协银</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">安顺市检察院新办公楼项目中央空调采购及安装追加</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">贵阳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">梁伟雄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深影国际影城北京店</t>
   </si>
   <si>
     <t xml:space="preserve">Modular</t>
   </si>
   <si>
-    <t xml:space="preserve">ACDSHP65HGKGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑州</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卢婉婉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家烟草检测中心</t>
+    <t xml:space="preserve">ACDSHP130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深圳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄小荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深影国际影城北京店</t>
   </si>
   <si>
     <t xml:space="preserve">Modular</t>
   </si>
   <si>
-    <t xml:space="preserve">ACDSHP130DHKGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑州</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卢婉婉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">超级广场</t>
+    <t xml:space="preserve">ACDSHP130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张立刚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深影国际影城北京店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张立刚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深影国际影城北京店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深圳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄小荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深影国际影城北京店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深圳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄小荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深影国际影城北京店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张立刚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深影国际影城北京店</t>
   </si>
   <si>
     <t xml:space="preserve">FCU</t>
   </si>
   <si>
-    <t xml:space="preserve">武汉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">许君</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">超级广场</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">武汉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">许君</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">东达项目增补合同</t>
+    <t xml:space="preserve">北京</t>
+  </si>
+  <si>
+    <t xml:space="preserve">张立刚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBC2017121448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深影国际影城北京店</t>
   </si>
   <si>
     <t xml:space="preserve">FCU</t>
   </si>
   <si>
-    <t xml:space="preserve">天津</t>
-  </si>
-  <si>
-    <t xml:space="preserve">赵克鑫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南昌市第五医院二期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">南昌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王旭乾</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">友谊宾馆地下车库及配套服务用房项目1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京</t>
-  </si>
-  <si>
-    <t xml:space="preserve">雷军</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">九江天祺氟硅新材料科技有限公司-60℃机组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外购</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广州</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黄涛</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">淄博高新区新能源车间项目组合空调机组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">济南</t>
-  </si>
-  <si>
-    <t xml:space="preserve">靳德辉</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑州郑东新区龙湖金融中心项目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑州</t>
-  </si>
-  <si>
-    <t xml:space="preserve">王雨晨</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑州郑东新区龙湖金融中心项目</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">郑州</t>
-  </si>
-  <si>
-    <t xml:space="preserve">孙磊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宜宾利民医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACDSHP65HGKG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成都</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廖琴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBC2017111279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宜宾利民医院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成都</t>
-  </si>
-  <si>
-    <t xml:space="preserve">廖琴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S0204</t>
+    <t xml:space="preserve">深圳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄小荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S0811</t>
   </si>
 </sst>
 </file>
@@ -1141,31 +2794,31 @@
         <v>31</v>
       </c>
       <c r="J3" s="11">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="K3" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" s="11">
-        <v>202267</v>
+        <v>689442</v>
       </c>
       <c r="M3" s="11">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="N3" s="11">
-        <v>205881</v>
+        <v>1030000</v>
       </c>
       <c r="O3" s="11">
-        <v>404.53</v>
+        <v>6894</v>
       </c>
       <c r="P3" s="11">
-        <v>505.67</v>
+        <v>1724</v>
       </c>
       <c r="Q3" s="11">
-        <v>303.4</v>
+        <v>1034</v>
       </c>
       <c r="R3" s="11">
-        <v>2400</v>
+        <v>288171</v>
       </c>
       <c r="S3" s="11">
         <v>0</v>
@@ -1203,31 +2856,31 @@
         <v>40</v>
       </c>
       <c r="J4" s="11">
-        <v>0.7727</v>
+        <v>0.76</v>
       </c>
       <c r="K4" s="11">
         <v>2</v>
       </c>
       <c r="L4" s="11">
-        <v>354367</v>
+        <v>53580</v>
       </c>
       <c r="M4" s="11">
         <v>0</v>
       </c>
       <c r="N4" s="11">
-        <v>1429997</v>
+        <v>455221</v>
       </c>
       <c r="O4" s="11">
-        <v>2686</v>
+        <v>905</v>
       </c>
       <c r="P4" s="11">
-        <v>3358</v>
+        <v>1131</v>
       </c>
       <c r="Q4" s="11">
-        <v>2015</v>
+        <v>679</v>
       </c>
       <c r="R4" s="11">
-        <v>53590</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11">
         <v>0</v>
@@ -1265,19 +2918,19 @@
         <v>49</v>
       </c>
       <c r="J5" s="11">
-        <v>0.7727</v>
+        <v>0.76</v>
       </c>
       <c r="K5" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="11">
-        <v>692039</v>
+        <v>69450</v>
       </c>
       <c r="M5" s="11">
         <v>0</v>
       </c>
       <c r="N5" s="11">
-        <v>1429997</v>
+        <v>0</v>
       </c>
       <c r="O5" s="11">
         <v>0</v>
@@ -1327,19 +2980,19 @@
         <v>58</v>
       </c>
       <c r="J6" s="11">
-        <v>0.7727</v>
+        <v>0.76</v>
       </c>
       <c r="K6" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" s="11">
-        <v>62478</v>
+        <v>102150</v>
       </c>
       <c r="M6" s="11">
         <v>0</v>
       </c>
       <c r="N6" s="11">
-        <v>1429997</v>
+        <v>0</v>
       </c>
       <c r="O6" s="11">
         <v>0</v>
@@ -1376,32 +3029,30 @@
       <c r="E7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="J7" s="11">
-        <v>0.7727</v>
+        <v>0.76</v>
       </c>
       <c r="K7" s="11">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="L7" s="11">
-        <v>234295</v>
+        <v>71414</v>
       </c>
       <c r="M7" s="11">
         <v>0</v>
       </c>
       <c r="N7" s="11">
-        <v>1429997</v>
+        <v>0</v>
       </c>
       <c r="O7" s="11">
         <v>0</v>
@@ -1424,53 +3075,53 @@
     </row>
     <row r="8" spans="1:31" ht="18.75" customHeight="1">
       <c r="A8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="J8" s="11">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="K8" s="11">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="L8" s="11">
-        <v>32024</v>
+        <v>155912</v>
       </c>
       <c r="M8" s="11">
         <v>0</v>
       </c>
       <c r="N8" s="11">
-        <v>38909</v>
+        <v>0</v>
       </c>
       <c r="O8" s="11">
-        <v>154.4</v>
+        <v>0</v>
       </c>
       <c r="P8" s="11">
-        <v>96.5</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="11">
-        <v>57.9</v>
+        <v>0</v>
       </c>
       <c r="R8" s="11">
         <v>0</v>
@@ -1484,44 +3135,44 @@
     </row>
     <row r="9" spans="1:31" ht="18.75" customHeight="1">
       <c r="A9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="11" t="s">
-        <v>83</v>
-      </c>
       <c r="J9" s="11">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="K9" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="11">
-        <v>6576</v>
+        <v>8000</v>
       </c>
       <c r="M9" s="11">
         <v>0</v>
       </c>
       <c r="N9" s="11">
-        <v>38909</v>
+        <v>10000</v>
       </c>
       <c r="O9" s="11">
         <v>0</v>
@@ -1544,59 +3195,59 @@
     </row>
     <row r="10" spans="1:31" ht="18.75" customHeight="1">
       <c r="A10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="J10" s="11">
         <v>0.75</v>
       </c>
       <c r="K10" s="11">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="L10" s="11">
-        <v>10530</v>
+        <v>26318.25</v>
       </c>
       <c r="M10" s="11">
         <v>0</v>
       </c>
       <c r="N10" s="11">
-        <v>12035</v>
+        <v>27562</v>
       </c>
       <c r="O10" s="11">
-        <v>21.06</v>
+        <v>52.64</v>
       </c>
       <c r="P10" s="11">
-        <v>26.33</v>
+        <v>65.8</v>
       </c>
       <c r="Q10" s="11">
-        <v>15.8</v>
+        <v>39.48</v>
       </c>
       <c r="R10" s="11">
         <v>0</v>
       </c>
       <c r="S10" s="11">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="T10" s="11">
         <v>0</v>
@@ -1604,21 +3255,23 @@
     </row>
     <row r="11" spans="1:31" ht="18.75" customHeight="1">
       <c r="A11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
         <v>97</v>
       </c>
@@ -1629,28 +3282,28 @@
         <v>99</v>
       </c>
       <c r="J11" s="11">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="K11" s="11">
-        <v>666</v>
+        <v>1</v>
       </c>
       <c r="L11" s="11">
-        <v>347983.2</v>
+        <v>137630</v>
       </c>
       <c r="M11" s="11">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="N11" s="11">
-        <v>347177</v>
+        <v>140034</v>
       </c>
       <c r="O11" s="11">
-        <v>695.97</v>
+        <v>275</v>
       </c>
       <c r="P11" s="11">
-        <v>869.96</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="11">
-        <v>521.97</v>
+        <v>206</v>
       </c>
       <c r="R11" s="11">
         <v>0</v>
@@ -1678,39 +3331,41 @@
       <c r="E12" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J12" s="11">
-        <v>0.7</v>
+        <v>0.684</v>
       </c>
       <c r="K12" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12" s="11">
-        <v>179689</v>
+        <v>284017</v>
       </c>
       <c r="M12" s="11">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="N12" s="11">
-        <v>190250</v>
+        <v>290000</v>
       </c>
       <c r="O12" s="11">
-        <v>359.38</v>
+        <v>568</v>
       </c>
       <c r="P12" s="11">
-        <v>449.22</v>
+        <v>710</v>
       </c>
       <c r="Q12" s="11">
-        <v>269.53</v>
+        <v>426</v>
       </c>
       <c r="R12" s="11">
         <v>0</v>
@@ -1724,56 +3379,56 @@
     </row>
     <row r="13" spans="1:31" ht="18.75" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J13" s="11">
         <v>1</v>
       </c>
       <c r="K13" s="11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L13" s="11">
-        <v>1260000</v>
+        <v>92500</v>
       </c>
       <c r="M13" s="11">
         <v>0</v>
       </c>
       <c r="N13" s="11">
-        <v>1400000</v>
+        <v>98000</v>
       </c>
       <c r="O13" s="11">
-        <v>6300</v>
+        <v>185</v>
       </c>
       <c r="P13" s="11">
-        <v>3150</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="11">
-        <v>1890</v>
+        <v>139</v>
       </c>
       <c r="R13" s="11">
-        <v>128660</v>
+        <v>0</v>
       </c>
       <c r="S13" s="11">
         <v>0</v>
@@ -1784,113 +3439,115 @@
     </row>
     <row r="14" spans="1:31" ht="18.75" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J14" s="11">
-        <v>0.706</v>
+        <v>0.66</v>
       </c>
       <c r="K14" s="11">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="L14" s="11">
-        <v>846263</v>
+        <v>78011.18</v>
       </c>
       <c r="M14" s="11">
-        <v>3000</v>
+        <v>2294</v>
       </c>
       <c r="N14" s="11">
-        <v>902705</v>
+        <v>82533</v>
       </c>
       <c r="O14" s="11">
-        <v>1692</v>
+        <v>156.02</v>
       </c>
       <c r="P14" s="11">
-        <v>2115</v>
+        <v>195.03</v>
       </c>
       <c r="Q14" s="11">
-        <v>1269</v>
+        <v>117.02</v>
       </c>
       <c r="R14" s="11">
-        <v>30194</v>
+        <v>0</v>
       </c>
       <c r="S14" s="11">
         <v>0</v>
       </c>
       <c r="T14" s="11">
-        <v>2621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="18.75" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>129</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="G15" s="11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J15" s="11">
-        <v>0.708</v>
+        <v>0.775</v>
       </c>
       <c r="K15" s="11">
-        <v>2061.5</v>
+        <v>1</v>
       </c>
       <c r="L15" s="11">
-        <v>1208585.5</v>
+        <v>64403</v>
       </c>
       <c r="M15" s="11">
         <v>0</v>
       </c>
       <c r="N15" s="11">
-        <v>2570000</v>
+        <v>192340</v>
       </c>
       <c r="O15" s="11">
-        <v>4834</v>
+        <v>382.39</v>
       </c>
       <c r="P15" s="11">
-        <v>6043</v>
+        <v>477.98</v>
       </c>
       <c r="Q15" s="11">
-        <v>3626</v>
+        <v>286.79</v>
       </c>
       <c r="R15" s="11">
         <v>0</v>
@@ -1904,44 +3561,46 @@
     </row>
     <row r="16" spans="1:31" ht="18.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="G16" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J16" s="11">
-        <v>0.708</v>
+        <v>0.775</v>
       </c>
       <c r="K16" s="11">
-        <v>2061.5</v>
+        <v>2</v>
       </c>
       <c r="L16" s="11">
-        <v>1208585.5</v>
+        <v>126790</v>
       </c>
       <c r="M16" s="11">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>2570000</v>
+        <v>0</v>
       </c>
       <c r="O16" s="11">
         <v>0</v>
@@ -1964,55 +3623,53 @@
     </row>
     <row r="17" spans="1:31" ht="18.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>145</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J17" s="11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K17" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L17" s="11">
-        <v>260475</v>
+        <v>252000</v>
       </c>
       <c r="M17" s="11">
         <v>0</v>
       </c>
       <c r="N17" s="11">
-        <v>343573</v>
+        <v>259000</v>
       </c>
       <c r="O17" s="11">
-        <v>683</v>
+        <v>1008</v>
       </c>
       <c r="P17" s="11">
-        <v>854</v>
+        <v>630</v>
       </c>
       <c r="Q17" s="11">
-        <v>512</v>
+        <v>378</v>
       </c>
       <c r="R17" s="11">
         <v>0</v>
@@ -2026,61 +3683,4019 @@
     </row>
     <row r="18" spans="1:31" ht="18.75" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J18" s="11">
-        <v>0.68</v>
+        <v>0.86897</v>
       </c>
       <c r="K18" s="11">
+        <v>3</v>
+      </c>
+      <c r="L18" s="11">
+        <v>18639.41</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>18900</v>
+      </c>
+      <c r="O18" s="11">
+        <v>186.39</v>
+      </c>
+      <c r="P18" s="11">
+        <v>46.6</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>27.96</v>
+      </c>
+      <c r="R18" s="11">
+        <v>0</v>
+      </c>
+      <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="L18" s="11">
-        <v>81049</v>
-      </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <v>343573</v>
-      </c>
-      <c r="O18" s="11">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <v>0</v>
-      </c>
-      <c r="S18" s="11">
-        <v>0</v>
-      </c>
-      <c r="T18" s="11">
+      <c r="J19" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="L19" s="11">
+        <v>6432</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>7200</v>
+      </c>
+      <c r="O19" s="11">
+        <v>26</v>
+      </c>
+      <c r="P19" s="11">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>10</v>
+      </c>
+      <c r="R19" s="11">
+        <v>0</v>
+      </c>
+      <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="11">
+        <v>0.7098</v>
+      </c>
+      <c r="K20" s="11">
+        <v>80</v>
+      </c>
+      <c r="L20" s="11">
+        <v>98240</v>
+      </c>
+      <c r="M20" s="11">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11">
+        <v>98830</v>
+      </c>
+      <c r="O20" s="11">
+        <v>196.48</v>
+      </c>
+      <c r="P20" s="11">
+        <v>245.6</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>147.36</v>
+      </c>
+      <c r="R20" s="11">
+        <v>0</v>
+      </c>
+      <c r="S20" s="11">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.872</v>
+      </c>
+      <c r="K21" s="11">
+        <v>29</v>
+      </c>
+      <c r="L21" s="11">
+        <v>22957</v>
+      </c>
+      <c r="M21" s="11">
+        <v>547</v>
+      </c>
+      <c r="N21" s="11">
+        <v>25500</v>
+      </c>
+      <c r="O21" s="11">
+        <v>230</v>
+      </c>
+      <c r="P21" s="11">
+        <v>57</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>34</v>
+      </c>
+      <c r="R21" s="11">
+        <v>2222</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="K22" s="11">
+        <v>67</v>
+      </c>
+      <c r="L22" s="11">
+        <v>97024</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>102391</v>
+      </c>
+      <c r="O22" s="11">
+        <v>388.1</v>
+      </c>
+      <c r="P22" s="11">
+        <v>242.56</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>145.54</v>
+      </c>
+      <c r="R22" s="11">
+        <v>0</v>
+      </c>
+      <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="K23" s="11">
+        <v>10</v>
+      </c>
+      <c r="L23" s="11">
+        <v>4995</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>5026</v>
+      </c>
+      <c r="O23" s="11">
+        <v>9.99</v>
+      </c>
+      <c r="P23" s="11">
+        <v>12.49</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>7.49</v>
+      </c>
+      <c r="R23" s="11">
+        <v>1</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="K24" s="11">
+        <v>2</v>
+      </c>
+      <c r="L24" s="11">
+        <v>54568</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11">
+        <v>55660</v>
+      </c>
+      <c r="O24" s="11">
+        <v>109.14</v>
+      </c>
+      <c r="P24" s="11">
+        <v>136.42</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>81.85</v>
+      </c>
+      <c r="R24" s="11">
+        <v>798.76</v>
+      </c>
+      <c r="S24" s="11">
+        <v>546</v>
+      </c>
+      <c r="T24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11">
+        <v>27284</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>81474</v>
+      </c>
+      <c r="O25" s="11">
+        <v>159.75</v>
+      </c>
+      <c r="P25" s="11">
+        <v>199.69</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>119.81</v>
+      </c>
+      <c r="R25" s="11">
+        <v>798.76</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2</v>
+      </c>
+      <c r="L26" s="11">
+        <v>52592</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0</v>
+      </c>
+      <c r="P26" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0</v>
+      </c>
+      <c r="R26" s="11">
+        <v>0</v>
+      </c>
+      <c r="S26" s="11">
+        <v>0</v>
+      </c>
+      <c r="T26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.792</v>
+      </c>
+      <c r="K27" s="11">
+        <v>5</v>
+      </c>
+      <c r="L27" s="11">
+        <v>314424</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11">
+        <v>545296</v>
+      </c>
+      <c r="O27" s="11">
+        <v>1211.91</v>
+      </c>
+      <c r="P27" s="11">
+        <v>1268.53</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>761.12</v>
+      </c>
+      <c r="R27" s="11">
+        <v>22159</v>
+      </c>
+      <c r="S27" s="11">
+        <v>0</v>
+      </c>
+      <c r="T27" s="11">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.792</v>
+      </c>
+      <c r="K28" s="11">
+        <v>1</v>
+      </c>
+      <c r="L28" s="11">
+        <v>1505</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
+      <c r="O28" s="11">
+        <v>0</v>
+      </c>
+      <c r="P28" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0</v>
+      </c>
+      <c r="R28" s="11">
+        <v>0</v>
+      </c>
+      <c r="S28" s="11">
+        <v>0</v>
+      </c>
+      <c r="T28" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.792</v>
+      </c>
+      <c r="K29" s="11">
+        <v>5</v>
+      </c>
+      <c r="L29" s="11">
+        <v>10890</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11">
+        <v>0</v>
+      </c>
+      <c r="S29" s="11">
+        <v>0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.792</v>
+      </c>
+      <c r="K30" s="11">
+        <v>4</v>
+      </c>
+      <c r="L30" s="11">
+        <v>82051</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
+      <c r="R30" s="11">
+        <v>0</v>
+      </c>
+      <c r="S30" s="11">
+        <v>0</v>
+      </c>
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.792</v>
+      </c>
+      <c r="K31" s="11">
+        <v>4</v>
+      </c>
+      <c r="L31" s="11">
+        <v>41614</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
+      <c r="R31" s="11">
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
+        <v>0</v>
+      </c>
+      <c r="T31" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.792</v>
+      </c>
+      <c r="K32" s="11">
+        <v>7</v>
+      </c>
+      <c r="L32" s="11">
+        <v>41778</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
+      <c r="R32" s="11">
+        <v>0</v>
+      </c>
+      <c r="S32" s="11">
+        <v>0</v>
+      </c>
+      <c r="T32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.792</v>
+      </c>
+      <c r="K33" s="11">
+        <v>25</v>
+      </c>
+      <c r="L33" s="11">
+        <v>15151</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0</v>
+      </c>
+      <c r="P33" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="R33" s="11">
+        <v>0</v>
+      </c>
+      <c r="S33" s="11">
+        <v>0</v>
+      </c>
+      <c r="T33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1</v>
+      </c>
+      <c r="L34" s="11">
+        <v>247264</v>
+      </c>
+      <c r="M34" s="11">
+        <v>12000</v>
+      </c>
+      <c r="N34" s="11">
+        <v>394600</v>
+      </c>
+      <c r="O34" s="11">
+        <v>758.64</v>
+      </c>
+      <c r="P34" s="11">
+        <v>948.3</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>568.98</v>
+      </c>
+      <c r="R34" s="11">
+        <v>0</v>
+      </c>
+      <c r="S34" s="11">
+        <v>0</v>
+      </c>
+      <c r="T34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="K35" s="11">
+        <v>2</v>
+      </c>
+      <c r="L35" s="11">
+        <v>56192</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11">
+        <v>0</v>
+      </c>
+      <c r="P35" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>0</v>
+      </c>
+      <c r="R35" s="11">
+        <v>0</v>
+      </c>
+      <c r="S35" s="11">
+        <v>0</v>
+      </c>
+      <c r="T35" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1</v>
+      </c>
+      <c r="L36" s="11">
+        <v>61816</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A37" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="K37" s="11">
+        <v>2</v>
+      </c>
+      <c r="L37" s="11">
+        <v>14048</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0</v>
+      </c>
+      <c r="N37" s="11">
+        <v>0</v>
+      </c>
+      <c r="O37" s="11">
+        <v>0</v>
+      </c>
+      <c r="P37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0</v>
+      </c>
+      <c r="R37" s="11">
+        <v>0</v>
+      </c>
+      <c r="S37" s="11">
+        <v>0</v>
+      </c>
+      <c r="T37" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A38" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="K38" s="11">
+        <v>1</v>
+      </c>
+      <c r="L38" s="11">
+        <v>259330</v>
+      </c>
+      <c r="M38" s="11">
+        <v>13000</v>
+      </c>
+      <c r="N38" s="11">
+        <v>266238</v>
+      </c>
+      <c r="O38" s="11">
+        <v>519</v>
+      </c>
+      <c r="P38" s="11">
+        <v>648</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>389</v>
+      </c>
+      <c r="R38" s="11">
+        <v>0</v>
+      </c>
+      <c r="S38" s="11">
+        <v>0</v>
+      </c>
+      <c r="T38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A39" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="J39" s="11">
+        <v>1</v>
+      </c>
+      <c r="K39" s="11">
+        <v>1</v>
+      </c>
+      <c r="L39" s="11">
+        <v>64750</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11">
+        <v>69762</v>
+      </c>
+      <c r="O39" s="11">
+        <v>259</v>
+      </c>
+      <c r="P39" s="11">
+        <v>162</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>97</v>
+      </c>
+      <c r="R39" s="11">
+        <v>0</v>
+      </c>
+      <c r="S39" s="11">
+        <v>0</v>
+      </c>
+      <c r="T39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A40" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" s="11">
+        <v>1</v>
+      </c>
+      <c r="K40" s="11">
+        <v>3</v>
+      </c>
+      <c r="L40" s="11">
+        <v>126750</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>127764</v>
+      </c>
+      <c r="O40" s="11">
+        <v>507</v>
+      </c>
+      <c r="P40" s="11">
+        <v>316.88</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>190.13</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A41" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0</v>
+      </c>
+      <c r="K41" s="11">
+        <v>3</v>
+      </c>
+      <c r="L41" s="11">
+        <v>84080</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11">
+        <v>93900</v>
+      </c>
+      <c r="O41" s="11">
+        <v>168.16</v>
+      </c>
+      <c r="P41" s="11">
+        <v>210.2</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>126.12</v>
+      </c>
+      <c r="R41" s="11">
+        <v>0</v>
+      </c>
+      <c r="S41" s="11">
+        <v>0</v>
+      </c>
+      <c r="T41" s="11">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A42" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0.7639</v>
+      </c>
+      <c r="K42" s="11">
+        <v>6</v>
+      </c>
+      <c r="L42" s="11">
+        <v>191651</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <v>192800</v>
+      </c>
+      <c r="O42" s="11">
+        <v>383.3</v>
+      </c>
+      <c r="P42" s="11">
+        <v>479.13</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>287.48</v>
+      </c>
+      <c r="R42" s="11">
+        <v>0</v>
+      </c>
+      <c r="S42" s="11">
+        <v>0</v>
+      </c>
+      <c r="T42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A43" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="K43" s="11">
+        <v>2</v>
+      </c>
+      <c r="L43" s="11">
+        <v>98080</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <v>103263</v>
+      </c>
+      <c r="O43" s="11">
+        <v>196.16</v>
+      </c>
+      <c r="P43" s="11">
+        <v>245.2</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>147.12</v>
+      </c>
+      <c r="R43" s="11">
+        <v>0</v>
+      </c>
+      <c r="S43" s="11">
+        <v>0</v>
+      </c>
+      <c r="T43" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A44" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="K44" s="11">
+        <v>86</v>
+      </c>
+      <c r="L44" s="11">
+        <v>452185.8</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11">
+        <v>466255</v>
+      </c>
+      <c r="O44" s="11">
+        <v>2260.93</v>
+      </c>
+      <c r="P44" s="11">
+        <v>1130.46</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>678.28</v>
+      </c>
+      <c r="R44" s="11">
+        <v>0</v>
+      </c>
+      <c r="S44" s="11">
+        <v>0</v>
+      </c>
+      <c r="T44" s="11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A45" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0.678</v>
+      </c>
+      <c r="K45" s="11">
+        <v>68</v>
+      </c>
+      <c r="L45" s="11">
+        <v>42307</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11">
+        <v>83447</v>
+      </c>
+      <c r="O45" s="11">
+        <v>157</v>
+      </c>
+      <c r="P45" s="11">
+        <v>196</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>118</v>
+      </c>
+      <c r="R45" s="11">
+        <v>0</v>
+      </c>
+      <c r="S45" s="11">
+        <v>0</v>
+      </c>
+      <c r="T45" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A46" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0.678</v>
+      </c>
+      <c r="K46" s="11">
+        <v>1</v>
+      </c>
+      <c r="L46" s="11">
+        <v>36044</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A47" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0.7489</v>
+      </c>
+      <c r="K47" s="11">
+        <v>1</v>
+      </c>
+      <c r="L47" s="11">
+        <v>398208.42</v>
+      </c>
+      <c r="M47" s="11">
+        <v>13000</v>
+      </c>
+      <c r="N47" s="11">
+        <v>409157</v>
+      </c>
+      <c r="O47" s="11">
+        <v>796.42</v>
+      </c>
+      <c r="P47" s="11">
+        <v>995.52</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>597.31</v>
+      </c>
+      <c r="R47" s="11">
+        <v>0</v>
+      </c>
+      <c r="S47" s="11">
+        <v>0</v>
+      </c>
+      <c r="T47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="J48" s="11">
+        <v>1</v>
+      </c>
+      <c r="K48" s="11">
+        <v>1</v>
+      </c>
+      <c r="L48" s="11">
+        <v>67900</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>68443</v>
+      </c>
+      <c r="O48" s="11">
+        <v>271.6</v>
+      </c>
+      <c r="P48" s="11">
+        <v>169.75</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>101.85</v>
+      </c>
+      <c r="R48" s="11">
+        <v>0</v>
+      </c>
+      <c r="S48" s="11">
+        <v>0</v>
+      </c>
+      <c r="T48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="J49" s="11">
+        <v>1.082</v>
+      </c>
+      <c r="K49" s="11">
+        <v>1</v>
+      </c>
+      <c r="L49" s="11">
+        <v>595238</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11">
+        <v>650000</v>
+      </c>
+      <c r="O49" s="11">
+        <v>2381</v>
+      </c>
+      <c r="P49" s="11">
+        <v>1488</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>893</v>
+      </c>
+      <c r="R49" s="11">
+        <v>50001</v>
+      </c>
+      <c r="S49" s="11">
+        <v>0</v>
+      </c>
+      <c r="T49" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0.8682</v>
+      </c>
+      <c r="K50" s="11">
+        <v>1</v>
+      </c>
+      <c r="L50" s="11">
+        <v>114586.416</v>
+      </c>
+      <c r="M50" s="11">
+        <v>16200</v>
+      </c>
+      <c r="N50" s="11">
+        <v>305070</v>
+      </c>
+      <c r="O50" s="11">
+        <v>1475.92</v>
+      </c>
+      <c r="P50" s="11">
+        <v>737.96</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>442.78</v>
+      </c>
+      <c r="R50" s="11">
+        <v>0</v>
+      </c>
+      <c r="S50" s="11">
+        <v>0</v>
+      </c>
+      <c r="T50" s="11">
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0.8682</v>
+      </c>
+      <c r="K51" s="11">
+        <v>1</v>
+      </c>
+      <c r="L51" s="11">
+        <v>121560.32</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0</v>
+      </c>
+      <c r="P51" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>0</v>
+      </c>
+      <c r="R51" s="11">
+        <v>0</v>
+      </c>
+      <c r="S51" s="11">
+        <v>0</v>
+      </c>
+      <c r="T51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0.8682</v>
+      </c>
+      <c r="K52" s="11">
+        <v>1</v>
+      </c>
+      <c r="L52" s="11">
+        <v>28646.604</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0</v>
+      </c>
+      <c r="P52" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>0</v>
+      </c>
+      <c r="R52" s="11">
+        <v>0</v>
+      </c>
+      <c r="S52" s="11">
+        <v>0</v>
+      </c>
+      <c r="T52" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0.8682</v>
+      </c>
+      <c r="K53" s="11">
+        <v>1</v>
+      </c>
+      <c r="L53" s="11">
+        <v>30390.08</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0</v>
+      </c>
+      <c r="O53" s="11">
+        <v>0</v>
+      </c>
+      <c r="P53" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>0</v>
+      </c>
+      <c r="R53" s="11">
+        <v>0</v>
+      </c>
+      <c r="S53" s="11">
+        <v>0</v>
+      </c>
+      <c r="T53" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="J54" s="11">
+        <v>1</v>
+      </c>
+      <c r="K54" s="11">
+        <v>1</v>
+      </c>
+      <c r="L54" s="11">
+        <v>19840.8</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>25000</v>
+      </c>
+      <c r="O54" s="11">
+        <v>99.21</v>
+      </c>
+      <c r="P54" s="11">
+        <v>62</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>37.2</v>
+      </c>
+      <c r="R54" s="11">
+        <v>0</v>
+      </c>
+      <c r="S54" s="11">
+        <v>0</v>
+      </c>
+      <c r="T54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="J55" s="11">
+        <v>1</v>
+      </c>
+      <c r="K55" s="11">
+        <v>1</v>
+      </c>
+      <c r="L55" s="11">
+        <v>4960.2</v>
+      </c>
+      <c r="M55" s="11">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0</v>
+      </c>
+      <c r="O55" s="11">
+        <v>0</v>
+      </c>
+      <c r="P55" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>0</v>
+      </c>
+      <c r="R55" s="11">
+        <v>0</v>
+      </c>
+      <c r="S55" s="11">
+        <v>0</v>
+      </c>
+      <c r="T55" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="K56" s="11">
+        <v>2</v>
+      </c>
+      <c r="L56" s="11">
+        <v>526197.5</v>
+      </c>
+      <c r="M56" s="11">
+        <v>15841.5</v>
+      </c>
+      <c r="N56" s="11">
+        <v>538200</v>
+      </c>
+      <c r="O56" s="11">
+        <v>1052.4</v>
+      </c>
+      <c r="P56" s="11">
+        <v>1315.49</v>
+      </c>
+      <c r="Q56" s="11">
+        <v>789.3</v>
+      </c>
+      <c r="R56" s="11">
+        <v>0</v>
+      </c>
+      <c r="S56" s="11">
+        <v>0</v>
+      </c>
+      <c r="T56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J57" s="11">
+        <v>0.8125</v>
+      </c>
+      <c r="K57" s="11">
+        <v>1</v>
+      </c>
+      <c r="L57" s="11">
+        <v>237527.5</v>
+      </c>
+      <c r="M57" s="11">
+        <v>21925</v>
+      </c>
+      <c r="N57" s="11">
+        <v>251000</v>
+      </c>
+      <c r="O57" s="11">
+        <v>950.11</v>
+      </c>
+      <c r="P57" s="11">
+        <v>593.82</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>356.29</v>
+      </c>
+      <c r="R57" s="11">
+        <v>4140</v>
+      </c>
+      <c r="S57" s="11">
+        <v>0</v>
+      </c>
+      <c r="T57" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="J58" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="K58" s="11">
+        <v>141</v>
+      </c>
+      <c r="L58" s="11">
+        <v>73759</v>
+      </c>
+      <c r="M58" s="11">
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <v>83500</v>
+      </c>
+      <c r="O58" s="11">
+        <v>737.59</v>
+      </c>
+      <c r="P58" s="11">
+        <v>184.4</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>110.64</v>
+      </c>
+      <c r="R58" s="11">
+        <v>0</v>
+      </c>
+      <c r="S58" s="11">
+        <v>0</v>
+      </c>
+      <c r="T58" s="11">
+        <v>7352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="J59" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="K59" s="11">
+        <v>105</v>
+      </c>
+      <c r="L59" s="11">
+        <v>57480</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11">
+        <v>57825</v>
+      </c>
+      <c r="O59" s="11">
+        <v>114.96</v>
+      </c>
+      <c r="P59" s="11">
+        <v>143.7</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>86.22</v>
+      </c>
+      <c r="R59" s="11">
+        <v>0</v>
+      </c>
+      <c r="S59" s="11">
+        <v>0</v>
+      </c>
+      <c r="T59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A60" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="J60" s="11">
+        <v>0.675</v>
+      </c>
+      <c r="K60" s="11">
+        <v>1</v>
+      </c>
+      <c r="L60" s="11">
+        <v>170133</v>
+      </c>
+      <c r="M60" s="11">
+        <v>20100</v>
+      </c>
+      <c r="N60" s="11">
+        <v>501941</v>
+      </c>
+      <c r="O60" s="11">
+        <v>997.9</v>
+      </c>
+      <c r="P60" s="11">
+        <v>1247.37</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>748.42</v>
+      </c>
+      <c r="R60" s="11">
+        <v>0</v>
+      </c>
+      <c r="S60" s="11">
+        <v>0</v>
+      </c>
+      <c r="T60" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A61" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0.675</v>
+      </c>
+      <c r="K61" s="11">
+        <v>1</v>
+      </c>
+      <c r="L61" s="11">
+        <v>328815</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
+      </c>
+      <c r="O61" s="11">
+        <v>0</v>
+      </c>
+      <c r="P61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>0</v>
+      </c>
+      <c r="R61" s="11">
+        <v>0</v>
+      </c>
+      <c r="S61" s="11">
+        <v>0</v>
+      </c>
+      <c r="T61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0.675</v>
+      </c>
+      <c r="K62" s="11">
+        <v>1</v>
+      </c>
+      <c r="L62" s="11">
+        <v>281235.75</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11">
+        <v>283303</v>
+      </c>
+      <c r="O62" s="11">
+        <v>562.47</v>
+      </c>
+      <c r="P62" s="11">
+        <v>703.09</v>
+      </c>
+      <c r="Q62" s="11">
+        <v>421.85</v>
+      </c>
+      <c r="R62" s="11">
+        <v>0</v>
+      </c>
+      <c r="S62" s="11">
+        <v>0</v>
+      </c>
+      <c r="T62" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A63" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0.8631</v>
+      </c>
+      <c r="K63" s="11">
+        <v>1</v>
+      </c>
+      <c r="L63" s="11">
+        <v>4428</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11">
+        <v>4489.69</v>
+      </c>
+      <c r="O63" s="11">
+        <v>44.28</v>
+      </c>
+      <c r="P63" s="11">
+        <v>11.07</v>
+      </c>
+      <c r="Q63" s="11">
+        <v>6.64</v>
+      </c>
+      <c r="R63" s="11">
+        <v>0</v>
+      </c>
+      <c r="S63" s="11">
+        <v>0</v>
+      </c>
+      <c r="T63" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A64" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0.7541</v>
+      </c>
+      <c r="K64" s="11">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11">
+        <v>16158.21</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0</v>
+      </c>
+      <c r="N64" s="11">
+        <v>16500</v>
+      </c>
+      <c r="O64" s="11">
+        <v>32</v>
+      </c>
+      <c r="P64" s="11">
+        <v>40</v>
+      </c>
+      <c r="Q64" s="11">
+        <v>24</v>
+      </c>
+      <c r="R64" s="11">
+        <v>0</v>
+      </c>
+      <c r="S64" s="11">
+        <v>0</v>
+      </c>
+      <c r="T64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A65" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="J65" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="K65" s="11">
+        <v>105</v>
+      </c>
+      <c r="L65" s="11">
+        <v>357890</v>
+      </c>
+      <c r="M65" s="11">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11">
+        <v>370000</v>
+      </c>
+      <c r="O65" s="11">
+        <v>1789.45</v>
+      </c>
+      <c r="P65" s="11">
+        <v>894.73</v>
+      </c>
+      <c r="Q65" s="11">
+        <v>536.84</v>
+      </c>
+      <c r="R65" s="11">
+        <v>8889</v>
+      </c>
+      <c r="S65" s="11">
+        <v>0</v>
+      </c>
+      <c r="T65" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A66" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="K66" s="11">
+        <v>1</v>
+      </c>
+      <c r="L66" s="11">
+        <v>28533.6</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>34930</v>
+      </c>
+      <c r="O66" s="11">
+        <v>114.13</v>
+      </c>
+      <c r="P66" s="11">
+        <v>71.33</v>
+      </c>
+      <c r="Q66" s="11">
+        <v>42.8</v>
+      </c>
+      <c r="R66" s="11">
+        <v>0</v>
+      </c>
+      <c r="S66" s="11">
+        <v>0</v>
+      </c>
+      <c r="T66" s="11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A67" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="J67" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="K67" s="11">
+        <v>1</v>
+      </c>
+      <c r="L67" s="11">
+        <v>127695</v>
+      </c>
+      <c r="M67" s="11">
+        <v>19269</v>
+      </c>
+      <c r="N67" s="11">
+        <v>366000.57</v>
+      </c>
+      <c r="O67" s="11">
+        <v>681</v>
+      </c>
+      <c r="P67" s="11">
+        <v>851</v>
+      </c>
+      <c r="Q67" s="11">
+        <v>510</v>
+      </c>
+      <c r="R67" s="11">
+        <v>18485</v>
+      </c>
+      <c r="S67" s="11">
+        <v>0</v>
+      </c>
+      <c r="T67" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A68" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="J68" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="K68" s="11">
+        <v>2</v>
+      </c>
+      <c r="L68" s="11">
+        <v>212616</v>
+      </c>
+      <c r="M68" s="11">
+        <v>0</v>
+      </c>
+      <c r="N68" s="11">
+        <v>0</v>
+      </c>
+      <c r="O68" s="11">
+        <v>0</v>
+      </c>
+      <c r="P68" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="11">
+        <v>0</v>
+      </c>
+      <c r="R68" s="11">
+        <v>0</v>
+      </c>
+      <c r="S68" s="11">
+        <v>0</v>
+      </c>
+      <c r="T68" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A69" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>585</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>590</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>591</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0.8396</v>
+      </c>
+      <c r="K69" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="L69" s="11">
+        <v>62226.4</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>119393</v>
+      </c>
+      <c r="O69" s="11">
+        <v>503</v>
+      </c>
+      <c r="P69" s="11">
+        <v>290</v>
+      </c>
+      <c r="Q69" s="11">
+        <v>174</v>
+      </c>
+      <c r="R69" s="11">
+        <v>0</v>
+      </c>
+      <c r="S69" s="11">
+        <v>0</v>
+      </c>
+      <c r="T69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A70" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>596</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="I70" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0.8396</v>
+      </c>
+      <c r="K70" s="11">
+        <v>52</v>
+      </c>
+      <c r="L70" s="11">
+        <v>30712.56</v>
+      </c>
+      <c r="M70" s="11">
+        <v>0</v>
+      </c>
+      <c r="N70" s="11">
+        <v>0</v>
+      </c>
+      <c r="O70" s="11">
+        <v>0</v>
+      </c>
+      <c r="P70" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="11">
+        <v>0</v>
+      </c>
+      <c r="R70" s="11">
+        <v>0</v>
+      </c>
+      <c r="S70" s="11">
+        <v>0</v>
+      </c>
+      <c r="T70" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="I71" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0.8396</v>
+      </c>
+      <c r="K71" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="L71" s="11">
+        <v>15556.6</v>
+      </c>
+      <c r="M71" s="11">
+        <v>0</v>
+      </c>
+      <c r="N71" s="11">
+        <v>0</v>
+      </c>
+      <c r="O71" s="11">
+        <v>0</v>
+      </c>
+      <c r="P71" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="11">
+        <v>0</v>
+      </c>
+      <c r="R71" s="11">
+        <v>0</v>
+      </c>
+      <c r="S71" s="11">
+        <v>0</v>
+      </c>
+      <c r="T71" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A72" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="J72" s="11">
+        <v>0.8396</v>
+      </c>
+      <c r="K72" s="11">
+        <v>13</v>
+      </c>
+      <c r="L72" s="11">
+        <v>7678.14</v>
+      </c>
+      <c r="M72" s="11">
+        <v>0</v>
+      </c>
+      <c r="N72" s="11">
+        <v>0</v>
+      </c>
+      <c r="O72" s="11">
+        <v>0</v>
+      </c>
+      <c r="P72" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="11">
+        <v>0</v>
+      </c>
+      <c r="R72" s="11">
+        <v>0</v>
+      </c>
+      <c r="S72" s="11">
+        <v>0</v>
+      </c>
+      <c r="T72" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A73" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0.7807</v>
+      </c>
+      <c r="K73" s="11">
+        <v>19</v>
+      </c>
+      <c r="L73" s="11">
+        <v>58490.04</v>
+      </c>
+      <c r="M73" s="11">
+        <v>0</v>
+      </c>
+      <c r="N73" s="11">
+        <v>185440</v>
+      </c>
+      <c r="O73" s="11">
+        <v>701</v>
+      </c>
+      <c r="P73" s="11">
+        <v>438</v>
+      </c>
+      <c r="Q73" s="11">
+        <v>263</v>
+      </c>
+      <c r="R73" s="11">
+        <v>8779</v>
+      </c>
+      <c r="S73" s="11">
+        <v>0</v>
+      </c>
+      <c r="T73" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A74" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="J74" s="11">
+        <v>0.7807</v>
+      </c>
+      <c r="K74" s="11">
+        <v>207</v>
+      </c>
+      <c r="L74" s="11">
+        <v>116769.3</v>
+      </c>
+      <c r="M74" s="11">
+        <v>0</v>
+      </c>
+      <c r="N74" s="11">
+        <v>0</v>
+      </c>
+      <c r="O74" s="11">
+        <v>0</v>
+      </c>
+      <c r="P74" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="11">
+        <v>0</v>
+      </c>
+      <c r="R74" s="11">
+        <v>0</v>
+      </c>
+      <c r="S74" s="11">
+        <v>0</v>
+      </c>
+      <c r="T74" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A75" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>640</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="J75" s="11">
+        <v>0.7551</v>
+      </c>
+      <c r="K75" s="11">
+        <v>72</v>
+      </c>
+      <c r="L75" s="11">
+        <v>41515.4</v>
+      </c>
+      <c r="M75" s="11">
+        <v>0</v>
+      </c>
+      <c r="N75" s="11">
+        <v>47794</v>
+      </c>
+      <c r="O75" s="11">
+        <v>83.03</v>
+      </c>
+      <c r="P75" s="11">
+        <v>103.79</v>
+      </c>
+      <c r="Q75" s="11">
+        <v>62.27</v>
+      </c>
+      <c r="R75" s="11">
+        <v>0</v>
+      </c>
+      <c r="S75" s="11">
+        <v>0</v>
+      </c>
+      <c r="T75" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A76" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>645</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="G76" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0.815</v>
+      </c>
+      <c r="K76" s="11">
+        <v>4</v>
+      </c>
+      <c r="L76" s="11">
+        <v>245000.8</v>
+      </c>
+      <c r="M76" s="11">
+        <v>0</v>
+      </c>
+      <c r="N76" s="11">
+        <v>448000</v>
+      </c>
+      <c r="O76" s="11">
+        <v>1099.65</v>
+      </c>
+      <c r="P76" s="11">
+        <v>1070.1</v>
+      </c>
+      <c r="Q76" s="11">
+        <v>642.06</v>
+      </c>
+      <c r="R76" s="11">
+        <v>0</v>
+      </c>
+      <c r="S76" s="11">
+        <v>0</v>
+      </c>
+      <c r="T76" s="11">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A77" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0.815</v>
+      </c>
+      <c r="K77" s="11">
+        <v>1</v>
+      </c>
+      <c r="L77" s="11">
+        <v>61250.2</v>
+      </c>
+      <c r="M77" s="11">
+        <v>0</v>
+      </c>
+      <c r="N77" s="11">
+        <v>0</v>
+      </c>
+      <c r="O77" s="11">
+        <v>0</v>
+      </c>
+      <c r="P77" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="11">
+        <v>0</v>
+      </c>
+      <c r="R77" s="11">
+        <v>0</v>
+      </c>
+      <c r="S77" s="11">
+        <v>0</v>
+      </c>
+      <c r="T77" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A78" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="J78" s="11">
+        <v>0.815</v>
+      </c>
+      <c r="K78" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="L78" s="11">
+        <v>4769.726</v>
+      </c>
+      <c r="M78" s="11">
+        <v>0</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0</v>
+      </c>
+      <c r="O78" s="11">
+        <v>0</v>
+      </c>
+      <c r="P78" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="11">
+        <v>0</v>
+      </c>
+      <c r="R78" s="11">
+        <v>0</v>
+      </c>
+      <c r="S78" s="11">
+        <v>0</v>
+      </c>
+      <c r="T78" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A79" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>669</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11" t="s">
+        <v>673</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>675</v>
+      </c>
+      <c r="J79" s="11">
+        <v>0.815</v>
+      </c>
+      <c r="K79" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="L79" s="11">
+        <v>19078.904</v>
+      </c>
+      <c r="M79" s="11">
+        <v>0</v>
+      </c>
+      <c r="N79" s="11">
+        <v>0</v>
+      </c>
+      <c r="O79" s="11">
+        <v>0</v>
+      </c>
+      <c r="P79" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="11">
+        <v>0</v>
+      </c>
+      <c r="R79" s="11">
+        <v>0</v>
+      </c>
+      <c r="S79" s="11">
+        <v>0</v>
+      </c>
+      <c r="T79" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A80" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="J80" s="11">
+        <v>0.815</v>
+      </c>
+      <c r="K80" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="L80" s="11">
+        <v>51142.88</v>
+      </c>
+      <c r="M80" s="11">
+        <v>0</v>
+      </c>
+      <c r="N80" s="11">
+        <v>0</v>
+      </c>
+      <c r="O80" s="11">
+        <v>0</v>
+      </c>
+      <c r="P80" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="11">
+        <v>0</v>
+      </c>
+      <c r="R80" s="11">
+        <v>0</v>
+      </c>
+      <c r="S80" s="11">
+        <v>0</v>
+      </c>
+      <c r="T80" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A81" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>685</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11" t="s">
+        <v>689</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0.815</v>
+      </c>
+      <c r="K81" s="11">
+        <v>1.8</v>
+      </c>
+      <c r="L81" s="11">
+        <v>12785.72</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0</v>
+      </c>
+      <c r="O81" s="11">
+        <v>0</v>
+      </c>
+      <c r="P81" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="11">
+        <v>0</v>
+      </c>
+      <c r="R81" s="11">
+        <v>0</v>
+      </c>
+      <c r="S81" s="11">
+        <v>0</v>
+      </c>
+      <c r="T81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A82" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0.815</v>
+      </c>
+      <c r="K82" s="11">
+        <v>7</v>
+      </c>
+      <c r="L82" s="11">
+        <v>6801.99</v>
+      </c>
+      <c r="M82" s="11">
+        <v>0</v>
+      </c>
+      <c r="N82" s="11">
+        <v>0</v>
+      </c>
+      <c r="O82" s="11">
+        <v>0</v>
+      </c>
+      <c r="P82" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="11">
+        <v>0</v>
+      </c>
+      <c r="R82" s="11">
+        <v>0</v>
+      </c>
+      <c r="S82" s="11">
+        <v>0</v>
+      </c>
+      <c r="T82" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" ht="18.75" customHeight="1">
+      <c r="A83" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0.815</v>
+      </c>
+      <c r="K83" s="11">
+        <v>28</v>
+      </c>
+      <c r="L83" s="11">
+        <v>27207.96</v>
+      </c>
+      <c r="M83" s="11">
+        <v>0</v>
+      </c>
+      <c r="N83" s="11">
+        <v>0</v>
+      </c>
+      <c r="O83" s="11">
+        <v>0</v>
+      </c>
+      <c r="P83" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="11">
+        <v>0</v>
+      </c>
+      <c r="R83" s="11">
+        <v>0</v>
+      </c>
+      <c r="S83" s="11">
+        <v>0</v>
+      </c>
+      <c r="T83" s="11">
         <v>0</v>
       </c>
     </row>
